--- a/datastatic/datasets/online/SDG10_Palma_Ratio_OECD_2013.xlsx
+++ b/datastatic/datasets/online/SDG10_Palma_Ratio_OECD_2013.xlsx
@@ -13,13 +13,13 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="95">
   <si>
-    <t>origil_title</t>
+    <t>original_title</t>
   </si>
   <si>
     <t>Income Inequality (Palma)</t>
   </si>
   <si>
-    <t>origil_indicator_code</t>
+    <t>original_indicator_code</t>
   </si>
   <si>
     <t>title_German</t>
@@ -305,18 +305,22 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="d/m/yyyy"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="7">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
     </font>
     <font>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+    </font>
+    <font/>
+    <font>
       <sz val="12.0"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
     </font>
-    <font/>
     <font>
       <b/>
       <sz val="12.0"/>
@@ -372,41 +376,38 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="18">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment/>
     </xf>
     <xf borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment vertical="top"/>
+      <alignment/>
     </xf>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment/>
     </xf>
-    <xf borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="2" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="3" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf borderId="0" fillId="3" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf borderId="0" fillId="3" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="3" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="top"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="top"/>
     </xf>
     <xf borderId="0" fillId="2" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="top"/>
     </xf>
-    <xf borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="1" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment vertical="top"/>
     </xf>
-    <xf borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="2" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="top"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
@@ -415,19 +416,19 @@
     <xf borderId="0" fillId="0" fontId="2" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment/>
     </xf>
-    <xf borderId="0" fillId="3" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="3" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="right"/>
     </xf>
   </cellXfs>
@@ -438,7 +439,7 @@
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/worksheetdrawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram"/>
 </file>
 
@@ -461,12 +462,12 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="4" t="s">
+      <c r="A3" s="3" t="s">
         <v>3</v>
       </c>
       <c r="B3" s="2" t="s">
@@ -474,7 +475,7 @@
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="4" t="s">
+      <c r="A4" s="3" t="s">
         <v>5</v>
       </c>
       <c r="B4" s="2">
@@ -482,12 +483,12 @@
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="5" t="s">
+      <c r="A5" s="4" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="4" t="s">
+      <c r="A6" s="3" t="s">
         <v>7</v>
       </c>
       <c r="B6" s="2" t="s">
@@ -495,7 +496,7 @@
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="4" t="s">
+      <c r="A7" s="3" t="s">
         <v>9</v>
       </c>
       <c r="B7" s="2" t="s">
@@ -503,50 +504,50 @@
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="6" t="s">
+      <c r="A8" s="5" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="7" t="s">
+      <c r="A9" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="B9" s="8" t="s">
+      <c r="B9" s="7" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="7" t="s">
+      <c r="A10" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="B10" s="8" t="s">
+      <c r="B10" s="7" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="7" t="s">
+      <c r="A11" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="B11" s="8" t="s">
+      <c r="B11" s="7" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="7" t="s">
+      <c r="A12" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="B12" s="8" t="s">
+      <c r="B12" s="7" t="s">
         <v>19</v>
       </c>
       <c r="D12" s="2"/>
     </row>
     <row r="13">
-      <c r="A13" s="6" t="s">
+      <c r="A13" s="5" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="7" t="s">
+      <c r="A14" s="6" t="s">
         <v>21</v>
       </c>
       <c r="B14" s="2" t="s">
@@ -554,7 +555,7 @@
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="7" t="s">
+      <c r="A15" s="6" t="s">
         <v>23</v>
       </c>
       <c r="B15" s="2">
@@ -562,7 +563,7 @@
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="7" t="s">
+      <c r="A16" s="6" t="s">
         <v>24</v>
       </c>
       <c r="B16" s="2" t="s">
@@ -570,7 +571,7 @@
       </c>
     </row>
     <row r="17">
-      <c r="A17" s="9" t="s">
+      <c r="A17" s="8" t="s">
         <v>26</v>
       </c>
       <c r="B17" s="2" t="s">
@@ -578,7 +579,7 @@
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="9" t="s">
+      <c r="A18" s="8" t="s">
         <v>28</v>
       </c>
       <c r="B18" s="2" t="s">
@@ -586,12 +587,12 @@
       </c>
     </row>
     <row r="19">
-      <c r="A19" s="10" t="s">
+      <c r="A19" s="9" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="7" t="s">
+      <c r="A20" s="6" t="s">
         <v>31</v>
       </c>
       <c r="B20" s="2" t="s">
@@ -599,15 +600,15 @@
       </c>
     </row>
     <row r="21">
-      <c r="A21" s="11" t="s">
+      <c r="A21" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="B21" s="12" t="s">
+      <c r="B21" s="11" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="22">
-      <c r="A22" s="11" t="s">
+      <c r="A22" s="10" t="s">
         <v>35</v>
       </c>
       <c r="B22" s="2" t="s">
@@ -615,28 +616,28 @@
       </c>
     </row>
     <row r="23">
-      <c r="A23" s="7" t="s">
+      <c r="A23" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="B23" s="12" t="s">
+      <c r="B23" s="11" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="24">
-      <c r="A24" s="5" t="s">
+      <c r="A24" s="4" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="25">
-      <c r="A25" s="4" t="s">
+      <c r="A25" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="B25" s="13">
+      <c r="B25" s="12">
         <v>42685.0</v>
       </c>
     </row>
     <row r="26">
-      <c r="A26" s="4" t="s">
+      <c r="A26" s="3" t="s">
         <v>41</v>
       </c>
       <c r="B26" s="2" t="s">
@@ -644,7 +645,7 @@
       </c>
     </row>
     <row r="27">
-      <c r="A27" s="11" t="s">
+      <c r="A27" s="10" t="s">
         <v>43</v>
       </c>
       <c r="B27" s="2">
@@ -652,13 +653,13 @@
       </c>
     </row>
     <row r="28">
-      <c r="A28" s="5" t="s">
+      <c r="A28" s="4" t="s">
         <v>44</v>
       </c>
       <c r="B28" s="2"/>
     </row>
     <row r="29">
-      <c r="A29" s="4" t="s">
+      <c r="A29" s="3" t="s">
         <v>45</v>
       </c>
       <c r="B29" s="2" t="s">
@@ -666,7 +667,7 @@
       </c>
     </row>
     <row r="30">
-      <c r="A30" s="4" t="s">
+      <c r="A30" s="3" t="s">
         <v>47</v>
       </c>
       <c r="B30" s="2" t="s">
@@ -674,7 +675,7 @@
       </c>
     </row>
     <row r="31">
-      <c r="A31" s="4" t="s">
+      <c r="A31" s="3" t="s">
         <v>49</v>
       </c>
       <c r="B31" s="2" t="s">
@@ -682,15 +683,15 @@
       </c>
     </row>
     <row r="32">
-      <c r="A32" s="4" t="s">
+      <c r="A32" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="B32" s="14" t="s">
+      <c r="B32" s="13" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="33">
-      <c r="A33" s="4" t="s">
+      <c r="A33" s="3" t="s">
         <v>53</v>
       </c>
       <c r="B33" s="2" t="s">
@@ -698,7 +699,7 @@
       </c>
     </row>
     <row r="34">
-      <c r="A34" s="4" t="s">
+      <c r="A34" s="3" t="s">
         <v>55</v>
       </c>
       <c r="B34" s="2" t="s">
@@ -706,7 +707,7 @@
       </c>
     </row>
     <row r="35">
-      <c r="A35" s="7" t="s">
+      <c r="A35" s="6" t="s">
         <v>56</v>
       </c>
       <c r="B35" s="2" t="s">
@@ -714,7 +715,7 @@
       </c>
     </row>
     <row r="36">
-      <c r="A36" s="15" t="s">
+      <c r="A36" s="14" t="s">
         <v>58</v>
       </c>
       <c r="C36" s="2"/>
@@ -725,403 +726,403 @@
       <c r="H36" s="2"/>
     </row>
     <row r="37">
-      <c r="A37" s="16"/>
-      <c r="B37" s="17">
+      <c r="A37" s="15"/>
+      <c r="B37" s="16">
         <v>2013.0</v>
       </c>
-      <c r="C37" s="17">
+      <c r="C37" s="16">
         <v>2012.0</v>
       </c>
     </row>
     <row r="38">
-      <c r="A38" s="16" t="s">
+      <c r="A38" s="15" t="s">
         <v>59</v>
       </c>
-      <c r="B38" s="18">
+      <c r="B38" s="17">
         <v>1.24</v>
       </c>
-      <c r="C38" s="17">
+      <c r="C38" s="16">
         <v>1.24</v>
       </c>
     </row>
     <row r="39">
-      <c r="A39" s="16" t="s">
+      <c r="A39" s="15" t="s">
         <v>60</v>
       </c>
-      <c r="B39" s="17">
+      <c r="B39" s="16">
         <v>0.99</v>
       </c>
-      <c r="C39" s="17">
+      <c r="C39" s="16">
         <v>0.96</v>
       </c>
     </row>
     <row r="40">
-      <c r="A40" s="16" t="s">
+      <c r="A40" s="15" t="s">
         <v>61</v>
       </c>
-      <c r="B40" s="17">
+      <c r="B40" s="16">
         <v>0.92</v>
       </c>
-      <c r="C40" s="17">
+      <c r="C40" s="16">
         <v>0.92</v>
       </c>
     </row>
     <row r="41">
-      <c r="A41" s="16" t="s">
+      <c r="A41" s="15" t="s">
         <v>62</v>
       </c>
-      <c r="B41" s="17">
+      <c r="B41" s="16">
         <v>1.21</v>
       </c>
-      <c r="C41" s="17">
+      <c r="C41" s="16">
         <v>1.22</v>
       </c>
     </row>
     <row r="42">
-      <c r="A42" s="16" t="s">
+      <c r="A42" s="15" t="s">
         <v>63</v>
       </c>
-      <c r="B42" s="17">
+      <c r="B42" s="16">
         <v>2.62</v>
       </c>
-      <c r="C42" s="16"/>
+      <c r="C42" s="15"/>
     </row>
     <row r="43">
-      <c r="A43" s="16" t="s">
+      <c r="A43" s="15" t="s">
         <v>64</v>
       </c>
-      <c r="B43" s="17">
+      <c r="B43" s="16">
         <v>0.92</v>
       </c>
-      <c r="C43" s="17">
+      <c r="C43" s="16">
         <v>0.89</v>
       </c>
     </row>
     <row r="44">
-      <c r="A44" s="16" t="s">
+      <c r="A44" s="15" t="s">
         <v>65</v>
       </c>
-      <c r="B44" s="17">
+      <c r="B44" s="16">
         <v>0.88</v>
       </c>
-      <c r="C44" s="17">
+      <c r="C44" s="16">
         <v>0.86</v>
       </c>
     </row>
     <row r="45">
-      <c r="A45" s="16" t="s">
+      <c r="A45" s="15" t="s">
         <v>66</v>
       </c>
-      <c r="B45" s="17">
+      <c r="B45" s="16">
         <v>1.49</v>
       </c>
-      <c r="C45" s="17">
+      <c r="C45" s="16">
         <v>1.31</v>
       </c>
     </row>
     <row r="46">
-      <c r="A46" s="16" t="s">
+      <c r="A46" s="15" t="s">
         <v>67</v>
       </c>
-      <c r="B46" s="17">
+      <c r="B46" s="16">
         <v>0.91</v>
       </c>
-      <c r="C46" s="17">
+      <c r="C46" s="16">
         <v>0.9</v>
       </c>
     </row>
     <row r="47">
-      <c r="A47" s="16" t="s">
+      <c r="A47" s="15" t="s">
         <v>68</v>
       </c>
-      <c r="B47" s="17">
+      <c r="B47" s="16">
         <v>1.09</v>
       </c>
-      <c r="C47" s="17">
+      <c r="C47" s="16">
         <v>1.17</v>
       </c>
     </row>
     <row r="48">
-      <c r="A48" s="16" t="s">
+      <c r="A48" s="15" t="s">
         <v>69</v>
       </c>
-      <c r="B48" s="17">
+      <c r="B48" s="16">
         <v>1.06</v>
       </c>
-      <c r="C48" s="17">
+      <c r="C48" s="16">
         <v>1.05</v>
       </c>
     </row>
     <row r="49">
-      <c r="A49" s="16" t="s">
+      <c r="A49" s="15" t="s">
         <v>70</v>
       </c>
-      <c r="B49" s="17">
+      <c r="B49" s="16">
         <v>1.35</v>
       </c>
-      <c r="C49" s="17">
+      <c r="C49" s="16">
         <v>1.34</v>
       </c>
     </row>
     <row r="50">
-      <c r="A50" s="16" t="s">
+      <c r="A50" s="15" t="s">
         <v>71</v>
       </c>
-      <c r="B50" s="18">
+      <c r="B50" s="17">
         <v>1.03</v>
       </c>
-      <c r="C50" s="17">
+      <c r="C50" s="16">
         <v>1.03</v>
       </c>
     </row>
     <row r="51">
-      <c r="A51" s="16" t="s">
+      <c r="A51" s="15" t="s">
         <v>72</v>
       </c>
-      <c r="B51" s="17">
+      <c r="B51" s="16">
         <v>0.83</v>
       </c>
-      <c r="C51" s="17">
+      <c r="C51" s="16">
         <v>0.89</v>
       </c>
     </row>
     <row r="52">
-      <c r="A52" s="16" t="s">
+      <c r="A52" s="15" t="s">
         <v>73</v>
       </c>
-      <c r="B52" s="17">
+      <c r="B52" s="16">
         <v>1.16</v>
       </c>
-      <c r="C52" s="17">
+      <c r="C52" s="16">
         <v>1.12</v>
       </c>
     </row>
     <row r="53">
-      <c r="A53" s="16" t="s">
+      <c r="A53" s="15" t="s">
         <v>74</v>
       </c>
-      <c r="B53" s="17">
+      <c r="B53" s="16">
         <v>1.49</v>
       </c>
-      <c r="C53" s="17">
+      <c r="C53" s="16">
         <v>1.56</v>
       </c>
     </row>
     <row r="54">
-      <c r="A54" s="16" t="s">
+      <c r="A54" s="15" t="s">
         <v>75</v>
       </c>
-      <c r="B54" s="17">
+      <c r="B54" s="16">
         <v>1.24</v>
       </c>
-      <c r="C54" s="17">
+      <c r="C54" s="16">
         <v>1.28</v>
       </c>
     </row>
     <row r="55">
-      <c r="A55" s="16" t="s">
+      <c r="A55" s="15" t="s">
         <v>76</v>
       </c>
-      <c r="B55" s="18">
+      <c r="B55" s="17">
         <v>1.25</v>
       </c>
-      <c r="C55" s="17">
+      <c r="C55" s="16">
         <v>1.25</v>
       </c>
     </row>
     <row r="56">
-      <c r="A56" s="16" t="s">
+      <c r="A56" s="15" t="s">
         <v>77</v>
       </c>
-      <c r="B56" s="17">
+      <c r="B56" s="16">
         <v>1.07</v>
       </c>
-      <c r="C56" s="17">
+      <c r="C56" s="16">
         <v>1.1</v>
       </c>
     </row>
     <row r="57">
-      <c r="A57" s="16" t="s">
+      <c r="A57" s="15" t="s">
         <v>78</v>
       </c>
-      <c r="B57" s="17">
+      <c r="B57" s="16">
         <v>1.42</v>
       </c>
-      <c r="C57" s="17">
+      <c r="C57" s="16">
         <v>1.38</v>
       </c>
     </row>
     <row r="58">
-      <c r="A58" s="16" t="s">
+      <c r="A58" s="15" t="s">
         <v>79</v>
       </c>
-      <c r="B58" s="17">
+      <c r="B58" s="16">
         <v>1.43</v>
       </c>
-      <c r="C58" s="17">
+      <c r="C58" s="16">
         <v>1.43</v>
       </c>
     </row>
     <row r="59">
-      <c r="A59" s="16" t="s">
+      <c r="A59" s="15" t="s">
         <v>80</v>
       </c>
-      <c r="B59" s="17">
+      <c r="B59" s="16">
         <v>0.99</v>
       </c>
-      <c r="C59" s="17">
+      <c r="C59" s="16">
         <v>1.12</v>
       </c>
     </row>
     <row r="60">
-      <c r="A60" s="16" t="s">
+      <c r="A60" s="15" t="s">
         <v>81</v>
       </c>
-      <c r="B60" s="18">
+      <c r="B60" s="17">
         <v>2.54</v>
       </c>
-      <c r="C60" s="17">
+      <c r="C60" s="16">
         <v>2.54</v>
       </c>
     </row>
     <row r="61">
-      <c r="A61" s="16" t="s">
+      <c r="A61" s="15" t="s">
         <v>82</v>
       </c>
-      <c r="B61" s="17">
+      <c r="B61" s="16">
         <v>0.99</v>
       </c>
-      <c r="C61" s="17">
+      <c r="C61" s="16">
         <v>1.01</v>
       </c>
     </row>
     <row r="62">
-      <c r="A62" s="16" t="s">
+      <c r="A62" s="15" t="s">
         <v>83</v>
       </c>
-      <c r="B62" s="18">
+      <c r="B62" s="17">
         <v>1.3</v>
       </c>
-      <c r="C62" s="17">
+      <c r="C62" s="16">
         <v>1.3</v>
       </c>
     </row>
     <row r="63">
-      <c r="A63" s="16" t="s">
+      <c r="A63" s="15" t="s">
         <v>84</v>
       </c>
-      <c r="B63" s="17">
+      <c r="B63" s="16">
         <v>0.86</v>
       </c>
-      <c r="C63" s="17">
+      <c r="C63" s="16">
         <v>0.86</v>
       </c>
     </row>
     <row r="64">
-      <c r="A64" s="16" t="s">
+      <c r="A64" s="15" t="s">
         <v>85</v>
       </c>
-      <c r="B64" s="17">
+      <c r="B64" s="16">
         <v>1.09</v>
       </c>
-      <c r="C64" s="17">
+      <c r="C64" s="16">
         <v>1.08</v>
       </c>
     </row>
     <row r="65">
-      <c r="A65" s="16" t="s">
+      <c r="A65" s="15" t="s">
         <v>86</v>
       </c>
-      <c r="B65" s="17">
+      <c r="B65" s="16">
         <v>1.36</v>
       </c>
-      <c r="C65" s="17">
+      <c r="C65" s="16">
         <v>1.33</v>
       </c>
     </row>
     <row r="66">
-      <c r="A66" s="16" t="s">
+      <c r="A66" s="15" t="s">
         <v>87</v>
       </c>
-      <c r="B66" s="17">
+      <c r="B66" s="16">
         <v>0.93</v>
       </c>
-      <c r="C66" s="17">
+      <c r="C66" s="16">
         <v>0.83</v>
       </c>
     </row>
     <row r="67">
-      <c r="A67" s="16" t="s">
+      <c r="A67" s="15" t="s">
         <v>88</v>
       </c>
-      <c r="B67" s="17">
+      <c r="B67" s="16">
         <v>0.86</v>
       </c>
-      <c r="C67" s="17">
+      <c r="C67" s="16">
         <v>0.84</v>
       </c>
     </row>
     <row r="68">
-      <c r="A68" s="16" t="s">
+      <c r="A68" s="15" t="s">
         <v>89</v>
       </c>
-      <c r="B68" s="17">
+      <c r="B68" s="16">
         <v>1.36</v>
       </c>
-      <c r="C68" s="17">
+      <c r="C68" s="16">
         <v>1.29</v>
       </c>
     </row>
     <row r="69">
-      <c r="A69" s="16" t="s">
+      <c r="A69" s="15" t="s">
         <v>90</v>
       </c>
-      <c r="B69" s="17">
+      <c r="B69" s="16">
         <v>1.0</v>
       </c>
-      <c r="C69" s="17">
+      <c r="C69" s="16">
         <v>0.96</v>
       </c>
     </row>
     <row r="70">
-      <c r="A70" s="16" t="s">
+      <c r="A70" s="15" t="s">
         <v>91</v>
       </c>
-      <c r="B70" s="17">
+      <c r="B70" s="16">
         <v>1.09</v>
       </c>
-      <c r="C70" s="16"/>
+      <c r="C70" s="15"/>
     </row>
     <row r="71">
-      <c r="A71" s="16" t="s">
+      <c r="A71" s="15" t="s">
         <v>92</v>
       </c>
-      <c r="B71" s="17">
+      <c r="B71" s="16">
         <v>1.79</v>
       </c>
-      <c r="C71" s="17">
+      <c r="C71" s="16">
         <v>1.88</v>
       </c>
     </row>
     <row r="72">
-      <c r="A72" s="16" t="s">
+      <c r="A72" s="15" t="s">
         <v>93</v>
       </c>
-      <c r="B72" s="17">
+      <c r="B72" s="16">
         <v>1.5</v>
       </c>
-      <c r="C72" s="17">
+      <c r="C72" s="16">
         <v>1.45</v>
       </c>
     </row>
     <row r="73">
-      <c r="A73" s="16" t="s">
+      <c r="A73" s="15" t="s">
         <v>94</v>
       </c>
-      <c r="B73" s="17">
+      <c r="B73" s="16">
         <v>1.82</v>
       </c>
-      <c r="C73" s="16"/>
+      <c r="C73" s="15"/>
     </row>
   </sheetData>
   <hyperlinks>

--- a/datastatic/datasets/online/SDG10_Palma_Ratio_OECD_2013.xlsx
+++ b/datastatic/datasets/online/SDG10_Palma_Ratio_OECD_2013.xlsx
@@ -199,7 +199,7 @@
     <t>Belgium</t>
   </si>
   <si>
-    <t>Cada</t>
+    <t>Canada</t>
   </si>
   <si>
     <t>Chile</t>
@@ -439,7 +439,7 @@
 </styleSheet>
 </file>
 
-<file path=xl/drawings/worksheetdrawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram"/>
 </file>
 
